--- a/data/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
+++ b/data/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">

--- a/data/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
+++ b/data/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -49,133 +49,145 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>&lt;9</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1153</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2187</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1723</t>
-  </si>
-  <si>
-    <t>278</t>
+    <t>&lt;9.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>1153.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>2187.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>985.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
+  </si>
+  <si>
+    <t>1236.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>1723.0</t>
+  </si>
+  <si>
+    <t>278.0</t>
+  </si>
+  <si>
+    <t>&lt;10.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -540,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,13 +601,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -615,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -641,13 +653,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -667,13 +679,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -693,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -719,13 +731,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -745,13 +757,13 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -771,13 +783,13 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -797,13 +809,13 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -823,13 +835,13 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -849,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -875,13 +887,13 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -901,13 +913,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -927,13 +939,13 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -953,13 +965,13 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -979,13 +991,13 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1005,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1031,13 +1043,13 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1057,13 +1069,13 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1083,13 +1095,13 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1109,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1135,13 +1147,13 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1161,13 +1173,13 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1187,13 +1199,13 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1213,13 +1225,13 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1239,13 +1251,13 @@
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1265,13 +1277,13 @@
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1291,13 +1303,13 @@
         <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1317,13 +1329,13 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1343,13 +1355,13 @@
         <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1369,13 +1381,13 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1395,13 +1407,13 @@
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1421,13 +1433,13 @@
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1447,13 +1459,13 @@
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1473,13 +1485,13 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1499,13 +1511,13 @@
         <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1525,13 +1537,13 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1551,13 +1563,13 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1577,13 +1589,13 @@
         <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1603,13 +1615,13 @@
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1629,13 +1641,13 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1655,13 +1667,13 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1681,13 +1693,13 @@
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1707,13 +1719,13 @@
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -1733,13 +1745,13 @@
         <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -1759,13 +1771,13 @@
         <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -1785,13 +1797,13 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -1811,13 +1823,13 @@
         <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -1837,13 +1849,13 @@
         <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -1863,13 +1875,13 @@
         <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -1889,13 +1901,13 @@
         <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -1915,13 +1927,13 @@
         <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -1941,13 +1953,13 @@
         <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -1967,13 +1979,13 @@
         <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -1993,13 +2005,13 @@
         <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2019,13 +2031,13 @@
         <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2045,13 +2057,13 @@
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2071,13 +2083,13 @@
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2097,13 +2109,13 @@
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2123,13 +2135,13 @@
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2149,13 +2161,13 @@
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2175,13 +2187,13 @@
         <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F63" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2201,13 +2213,13 @@
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G64" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2227,13 +2239,13 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G65" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2253,13 +2265,13 @@
         <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2279,13 +2291,13 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2305,13 +2317,13 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F68" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2331,13 +2343,13 @@
         <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2357,13 +2369,13 @@
         <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2383,13 +2395,13 @@
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2409,13 +2421,13 @@
         <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G72" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2435,13 +2447,13 @@
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2461,13 +2473,13 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2487,13 +2499,13 @@
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F75" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2513,13 +2525,13 @@
         <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2539,13 +2551,13 @@
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2565,13 +2577,13 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2591,13 +2603,13 @@
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G79" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2617,13 +2629,13 @@
         <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G80" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2643,13 +2655,13 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2669,13 +2681,13 @@
         <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2695,13 +2707,13 @@
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G83" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2721,13 +2733,13 @@
         <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G84" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2747,13 +2759,13 @@
         <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F85" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G85" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -2773,13 +2785,13 @@
         <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F86" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G86" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2799,13 +2811,13 @@
         <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F87" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G87" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -2825,13 +2837,13 @@
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G88" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -2851,13 +2863,13 @@
         <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F89" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -2877,13 +2889,13 @@
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G90" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -2903,13 +2915,13 @@
         <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -2929,13 +2941,13 @@
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F92" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G92" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -2955,13 +2967,13 @@
         <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G93" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -2981,13 +2993,13 @@
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G94" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3007,13 +3019,13 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3033,13 +3045,13 @@
         <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F96" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G96" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3059,13 +3071,13 @@
         <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G97" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3085,13 +3097,13 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F98" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3111,13 +3123,13 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F99" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3137,13 +3149,13 @@
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G100" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3163,13 +3175,13 @@
         <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F101" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3189,13 +3201,13 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F102" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G102" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3215,13 +3227,13 @@
         <v>35</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F103" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G103" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3241,13 +3253,13 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F104" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3267,13 +3279,13 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F105" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G105" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3293,13 +3305,13 @@
         <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3319,13 +3331,13 @@
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G107" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3345,13 +3357,13 @@
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F108" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G108" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3371,13 +3383,13 @@
         <v>25</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F109" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G109" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3397,13 +3409,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F110" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3423,13 +3435,13 @@
         <v>26</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F111" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G111" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3449,13 +3461,13 @@
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F112" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3475,13 +3487,13 @@
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F113" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G113" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3501,13 +3513,13 @@
         <v>25</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F114" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G114" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3527,13 +3539,13 @@
         <v>17</v>
       </c>
       <c r="E115" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F115" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G115" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3553,13 +3565,13 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F116" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G116" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3579,13 +3591,13 @@
         <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F117" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G117" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3605,13 +3617,13 @@
         <v>25</v>
       </c>
       <c r="E118" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F118" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3631,13 +3643,13 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F119" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G119" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3657,13 +3669,13 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F120" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G120" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3683,13 +3695,13 @@
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F121" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3709,13 +3721,13 @@
         <v>26</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F122" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G122" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3735,15 +3747,665 @@
         <v>35</v>
       </c>
       <c r="E123" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" t="s">
+        <v>56</v>
+      </c>
+      <c r="G123" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45600.47430555556</v>
+      </c>
+      <c r="D124" t="s">
         <v>52</v>
       </c>
-      <c r="F123" t="s">
+      <c r="E124" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" t="s">
+        <v>57</v>
+      </c>
+      <c r="G124" t="s">
+        <v>58</v>
+      </c>
+      <c r="H124">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45607.45138888889</v>
+      </c>
+      <c r="D125" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125" t="s">
+        <v>57</v>
+      </c>
+      <c r="G125" t="s">
+        <v>58</v>
+      </c>
+      <c r="H125">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45614.46180555555</v>
+      </c>
+      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G126" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45621.43055555555</v>
+      </c>
+      <c r="D127" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G127" t="s">
+        <v>58</v>
+      </c>
+      <c r="H127">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45635.45833333334</v>
+      </c>
+      <c r="D128" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" t="s">
+        <v>55</v>
+      </c>
+      <c r="F128" t="s">
+        <v>57</v>
+      </c>
+      <c r="G128" t="s">
+        <v>58</v>
+      </c>
+      <c r="H128">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45642.46666666667</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" t="s">
+        <v>57</v>
+      </c>
+      <c r="G129" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45649.43402777778</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" t="s">
+        <v>57</v>
+      </c>
+      <c r="G130" t="s">
+        <v>58</v>
+      </c>
+      <c r="H130">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45656.42986111111</v>
+      </c>
+      <c r="D131" t="s">
         <v>53</v>
       </c>
-      <c r="G123" t="s">
+      <c r="E131" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" t="s">
+        <v>57</v>
+      </c>
+      <c r="G131" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45663.46180555555</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" t="s">
+        <v>57</v>
+      </c>
+      <c r="G132" t="s">
+        <v>58</v>
+      </c>
+      <c r="H132">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45670.46319444444</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133" t="s">
+        <v>57</v>
+      </c>
+      <c r="G133" t="s">
+        <v>58</v>
+      </c>
+      <c r="H133">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45678.46458333333</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>55</v>
+      </c>
+      <c r="F134" t="s">
+        <v>57</v>
+      </c>
+      <c r="G134" t="s">
+        <v>58</v>
+      </c>
+      <c r="H134">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45684.45</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>55</v>
+      </c>
+      <c r="F135" t="s">
+        <v>57</v>
+      </c>
+      <c r="G135" t="s">
+        <v>58</v>
+      </c>
+      <c r="H135">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45691.42013888889</v>
+      </c>
+      <c r="D136" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" t="s">
+        <v>55</v>
+      </c>
+      <c r="F136" t="s">
+        <v>57</v>
+      </c>
+      <c r="G136" t="s">
+        <v>58</v>
+      </c>
+      <c r="H136">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45698.44583333333</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" t="s">
+        <v>57</v>
+      </c>
+      <c r="G137" t="s">
+        <v>58</v>
+      </c>
+      <c r="H137">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45705.44097222222</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" t="s">
+        <v>57</v>
+      </c>
+      <c r="G138" t="s">
+        <v>58</v>
+      </c>
+      <c r="H138">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45712.44722222222</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" t="s">
+        <v>55</v>
+      </c>
+      <c r="F139" t="s">
+        <v>57</v>
+      </c>
+      <c r="G139" t="s">
+        <v>58</v>
+      </c>
+      <c r="H139">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45720.40069444444</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" t="s">
+        <v>58</v>
+      </c>
+      <c r="H140">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45726.45902777778</v>
+      </c>
+      <c r="D141" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" t="s">
+        <v>57</v>
+      </c>
+      <c r="G141" t="s">
+        <v>58</v>
+      </c>
+      <c r="H141">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45733.45138888889</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" t="s">
+        <v>55</v>
+      </c>
+      <c r="F142" t="s">
+        <v>57</v>
+      </c>
+      <c r="G142" t="s">
+        <v>58</v>
+      </c>
+      <c r="H142">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45740.44513888889</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F143" t="s">
+        <v>57</v>
+      </c>
+      <c r="G143" t="s">
+        <v>58</v>
+      </c>
+      <c r="H143">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45747.41319444445</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
+        <v>55</v>
+      </c>
+      <c r="F144" t="s">
+        <v>57</v>
+      </c>
+      <c r="G144" t="s">
+        <v>58</v>
+      </c>
+      <c r="H144">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45754.49097222222</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" t="s">
+        <v>55</v>
+      </c>
+      <c r="F145" t="s">
+        <v>57</v>
+      </c>
+      <c r="G145" t="s">
+        <v>58</v>
+      </c>
+      <c r="H145">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45761.47152777778</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" t="s">
+        <v>57</v>
+      </c>
+      <c r="G146" t="s">
+        <v>58</v>
+      </c>
+      <c r="H146">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45769.47222222222</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s">
+        <v>55</v>
+      </c>
+      <c r="F147" t="s">
+        <v>57</v>
+      </c>
+      <c r="G147" t="s">
+        <v>58</v>
+      </c>
+      <c r="H147">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45775.51041666666</v>
+      </c>
+      <c r="D148" t="s">
         <v>54</v>
       </c>
-      <c r="H123">
+      <c r="E148" t="s">
+        <v>55</v>
+      </c>
+      <c r="F148" t="s">
+        <v>57</v>
+      </c>
+      <c r="G148" t="s">
+        <v>58</v>
+      </c>
+      <c r="H148">
         <v>600</v>
       </c>
     </row>
